--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1080,6 +1080,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,18 +1099,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AN57"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1691,18 +1691,18 @@
       <c r="N3" s="47"/>
     </row>
     <row r="4" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P5" s="45" t="s">
@@ -1777,45 +1777,45 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
       <c r="P7" s="58"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
       <c r="AA7" s="59"/>
-      <c r="AC7" s="54" t="s">
+      <c r="AC7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52" t="s">
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
       <c r="AN7" s="9"/>
     </row>
     <row r="8" spans="3:40" x14ac:dyDescent="0.3">
@@ -1832,28 +1832,28 @@
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="P8" s="58"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
       <c r="AA8" s="59"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
       <c r="AN8" s="9"/>
     </row>
     <row r="9" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1870,28 +1870,28 @@
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
       <c r="P9" s="58"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
       <c r="AA9" s="59"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
       <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="3:40" x14ac:dyDescent="0.3">
@@ -1921,32 +1921,32 @@
       <c r="Y10" s="61"/>
       <c r="Z10" s="61"/>
       <c r="AA10" s="62"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="52"/>
-      <c r="AJ10" s="52"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
       <c r="AN10" s="9"/>
     </row>
     <row r="11" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C11" s="54"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="50"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -1959,32 +1959,32 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
       <c r="AN11" s="9"/>
     </row>
     <row r="12" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="63" t="s">
         <v>35</v>
@@ -2001,17 +2001,17 @@
       <c r="Y12" s="73"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52"/>
-      <c r="AJ12" s="52"/>
-      <c r="AK12" s="52"/>
-      <c r="AL12" s="52"/>
-      <c r="AM12" s="52"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
       <c r="AN12" s="9"/>
     </row>
     <row r="13" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2029,27 +2029,27 @@
       <c r="N13" s="82"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="66"/>
-      <c r="R13" s="52"/>
+      <c r="R13" s="49"/>
       <c r="S13" s="67"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="74"/>
-      <c r="X13" s="52"/>
+      <c r="X13" s="49"/>
       <c r="Y13" s="75"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="52"/>
-      <c r="AJ13" s="52"/>
-      <c r="AK13" s="52"/>
-      <c r="AL13" s="52"/>
-      <c r="AM13" s="52"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
       <c r="AN13" s="9"/>
     </row>
     <row r="14" spans="3:40" x14ac:dyDescent="0.3">
@@ -2069,58 +2069,58 @@
       <c r="N14" s="47"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="66"/>
-      <c r="R14" s="52"/>
+      <c r="R14" s="49"/>
       <c r="S14" s="67"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="74"/>
-      <c r="X14" s="52"/>
+      <c r="X14" s="49"/>
       <c r="Y14" s="75"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="52"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
-      <c r="AL14" s="52"/>
-      <c r="AM14" s="52"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
       <c r="AN14" s="9"/>
     </row>
     <row r="15" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="66"/>
-      <c r="R15" s="52"/>
+      <c r="R15" s="49"/>
       <c r="S15" s="67"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="74"/>
-      <c r="X15" s="52"/>
+      <c r="X15" s="49"/>
       <c r="Y15" s="75"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="9"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="52"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
@@ -2145,13 +2145,13 @@
       <c r="N16" s="47"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="66"/>
-      <c r="R16" s="52"/>
+      <c r="R16" s="49"/>
       <c r="S16" s="67"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="74"/>
-      <c r="X16" s="52"/>
+      <c r="X16" s="49"/>
       <c r="Y16" s="75"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
@@ -2183,13 +2183,13 @@
       <c r="N17" s="15"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="66"/>
-      <c r="R17" s="52"/>
+      <c r="R17" s="49"/>
       <c r="S17" s="67"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="74"/>
-      <c r="X17" s="52"/>
+      <c r="X17" s="49"/>
       <c r="Y17" s="75"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
@@ -2199,13 +2199,13 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="AJ17" s="52"/>
-      <c r="AK17" s="52"/>
-      <c r="AL17" s="52"/>
-      <c r="AM17" s="52"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
       <c r="AN17" s="9"/>
     </row>
     <row r="18" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2286,18 +2286,18 @@
       <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C20" s="54"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="50"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -2324,18 +2324,18 @@
       <c r="AN20" s="9"/>
     </row>
     <row r="21" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="54"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2362,198 +2362,198 @@
       <c r="AN21" s="12"/>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C22" s="54"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="P22" s="51" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
+      <c r="P22" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="53"/>
-      <c r="AC22" s="51" t="s">
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="50"/>
+      <c r="AC22" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="52"/>
-      <c r="AI22" s="52"/>
-      <c r="AJ22" s="52"/>
-      <c r="AK22" s="52"/>
-      <c r="AL22" s="52"/>
-      <c r="AM22" s="52"/>
-      <c r="AN22" s="53"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="50"/>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C23" s="54"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="53"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="52"/>
-      <c r="AI23" s="52"/>
-      <c r="AJ23" s="52"/>
-      <c r="AK23" s="52"/>
-      <c r="AL23" s="52"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="53"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="50"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="50"/>
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C24" s="54"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="53"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="52"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="52"/>
-      <c r="AK24" s="52"/>
-      <c r="AL24" s="52"/>
-      <c r="AM24" s="52"/>
-      <c r="AN24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="50"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="50"/>
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C25" s="54"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="53"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-      <c r="AN25" s="53"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="50"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="49"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="50"/>
     </row>
     <row r="26" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="53"/>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="53"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="50"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="50"/>
     </row>
     <row r="27" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="18"/>
@@ -2568,30 +2568,30 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="19"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="52"/>
-      <c r="AA27" s="53"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="52"/>
-      <c r="AJ27" s="52"/>
-      <c r="AK27" s="52"/>
-      <c r="AL27" s="52"/>
-      <c r="AM27" s="52"/>
-      <c r="AN27" s="53"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="50"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="50"/>
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C28" s="45" t="s">
@@ -2608,372 +2608,372 @@
       <c r="L28" s="46"/>
       <c r="M28" s="46"/>
       <c r="N28" s="47"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="53"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="52"/>
-      <c r="AI28" s="52"/>
-      <c r="AJ28" s="52"/>
-      <c r="AK28" s="52"/>
-      <c r="AL28" s="52"/>
-      <c r="AM28" s="52"/>
-      <c r="AN28" s="53"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="50"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="49"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="50"/>
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C29" s="54"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="53"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="52"/>
-      <c r="AI29" s="52"/>
-      <c r="AJ29" s="52"/>
-      <c r="AK29" s="52"/>
-      <c r="AL29" s="52"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="53"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="50"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="50"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="49"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="50"/>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C30" s="54"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="53"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="52"/>
-      <c r="AI30" s="52"/>
-      <c r="AJ30" s="52"/>
-      <c r="AK30" s="52"/>
-      <c r="AL30" s="52"/>
-      <c r="AM30" s="52"/>
-      <c r="AN30" s="53"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="50"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="49"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="50"/>
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C31" s="54"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="53"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="52"/>
-      <c r="AI31" s="52"/>
-      <c r="AJ31" s="52"/>
-      <c r="AK31" s="52"/>
-      <c r="AL31" s="52"/>
-      <c r="AM31" s="52"/>
-      <c r="AN31" s="53"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="50"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="50"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="50"/>
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C32" s="54"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="53"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="52"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="52"/>
-      <c r="AK32" s="52"/>
-      <c r="AL32" s="52"/>
-      <c r="AM32" s="52"/>
-      <c r="AN32" s="53"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="50"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="50"/>
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C33" s="54"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="53"/>
-      <c r="AC33" s="54"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52"/>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52"/>
-      <c r="AN33" s="53"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="50"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="50"/>
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C34" s="54"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="53"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="53"/>
-      <c r="AC34" s="54"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52"/>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="52"/>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="52"/>
-      <c r="AN34" s="53"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="50"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="50"/>
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C35" s="54"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="53"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
-      <c r="AI35" s="52"/>
-      <c r="AJ35" s="52"/>
-      <c r="AK35" s="52"/>
-      <c r="AL35" s="52"/>
-      <c r="AM35" s="52"/>
-      <c r="AN35" s="53"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="50"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="50"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="50"/>
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C36" s="54"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="53"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="53"/>
-      <c r="AC36" s="54"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52"/>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="52"/>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="52"/>
-      <c r="AN36" s="53"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="50"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="50"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49"/>
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49"/>
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49"/>
+      <c r="AN36" s="50"/>
     </row>
     <row r="37" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="48"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="50"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="53"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="52"/>
-      <c r="AJ37" s="52"/>
-      <c r="AK37" s="52"/>
-      <c r="AL37" s="52"/>
-      <c r="AM37" s="52"/>
-      <c r="AN37" s="53"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="50"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="49"/>
+      <c r="AI37" s="49"/>
+      <c r="AJ37" s="49"/>
+      <c r="AK37" s="49"/>
+      <c r="AL37" s="49"/>
+      <c r="AM37" s="49"/>
+      <c r="AN37" s="50"/>
     </row>
     <row r="38" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="20"/>
@@ -2988,30 +2988,30 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="49"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="49"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="49"/>
-      <c r="AA38" s="50"/>
-      <c r="AC38" s="48"/>
-      <c r="AD38" s="49"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="49"/>
-      <c r="AH38" s="49"/>
-      <c r="AI38" s="49"/>
-      <c r="AJ38" s="49"/>
-      <c r="AK38" s="49"/>
-      <c r="AL38" s="49"/>
-      <c r="AM38" s="49"/>
-      <c r="AN38" s="50"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="54"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="54"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
@@ -3120,12 +3120,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC5:AN5"/>
-    <mergeCell ref="AC22:AN38"/>
-    <mergeCell ref="AC7:AF15"/>
-    <mergeCell ref="AG14:AM14"/>
-    <mergeCell ref="AG7:AM13"/>
-    <mergeCell ref="AI17:AM17"/>
     <mergeCell ref="C3:N4"/>
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="P22:AA38"/>
@@ -3139,6 +3133,12 @@
     <mergeCell ref="C10:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N15"/>
+    <mergeCell ref="AC5:AN5"/>
+    <mergeCell ref="AC22:AN38"/>
+    <mergeCell ref="AC7:AF15"/>
+    <mergeCell ref="AG14:AM14"/>
+    <mergeCell ref="AG7:AM13"/>
+    <mergeCell ref="AI17:AM17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3151,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3831,14 +3831,14 @@
         <v>47</v>
       </c>
       <c r="R5" s="8"/>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
       <c r="Y5" s="8" t="s">
         <v>51</v>
       </c>
@@ -3851,30 +3851,30 @@
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C6" s="89"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="90"/>
       <c r="I6" s="89"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="90"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="8">
         <v>1</v>
       </c>
       <c r="R6" s="8"/>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
       <c r="Y6" s="40">
         <v>0.05</v>
       </c>
@@ -3887,30 +3887,30 @@
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C7" s="89"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="90"/>
       <c r="I7" s="89"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="90"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="8">
         <v>2</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="52" t="s">
+      <c r="S7" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="39" t="s">
@@ -3919,16 +3919,16 @@
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C8" s="89"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
       <c r="H8" s="90"/>
       <c r="I8" s="89"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="90"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="8">
@@ -3949,16 +3949,16 @@
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C9" s="89"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="90"/>
       <c r="I9" s="89"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="90"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="8">
@@ -3979,16 +3979,16 @@
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10" s="89"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="90"/>
       <c r="I10" s="89"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="90"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="8">
@@ -4009,16 +4009,16 @@
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C11" s="89"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="90"/>
       <c r="I11" s="89"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="90"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="8">
@@ -4039,16 +4039,16 @@
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C12" s="89"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="90"/>
       <c r="I12" s="89"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="90"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="8">
@@ -4069,16 +4069,16 @@
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C13" s="89"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="90"/>
       <c r="I13" s="89"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="90"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="8">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C14" s="89"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="90"/>
       <c r="I14" s="89"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="90"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="8">
@@ -4129,16 +4129,16 @@
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C15" s="89"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="90"/>
       <c r="I15" s="89"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="90"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="8">
@@ -4159,16 +4159,16 @@
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C16" s="89"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="90"/>
       <c r="I16" s="89"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="90"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="8">
@@ -4189,16 +4189,16 @@
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="89"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="90"/>
       <c r="I17" s="89"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="90"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="8">
@@ -4219,16 +4219,16 @@
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="89"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="90"/>
       <c r="I18" s="89"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
       <c r="N18" s="90"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="8">
@@ -4249,16 +4249,16 @@
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="89"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="90"/>
       <c r="I19" s="89"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="90"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="8">
@@ -4279,16 +4279,16 @@
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="89"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="90"/>
       <c r="I20" s="89"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
       <c r="N20" s="90"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="8">
@@ -4309,16 +4309,16 @@
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="89"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="90"/>
       <c r="I21" s="89"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="90"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="8">
@@ -4339,16 +4339,16 @@
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22" s="89"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="90"/>
       <c r="I22" s="89"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="90"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="8">
@@ -4369,16 +4369,16 @@
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="89"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="90"/>
       <c r="I23" s="89"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
       <c r="N23" s="90"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="8">
@@ -4399,16 +4399,16 @@
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="89"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="90"/>
       <c r="I24" s="89"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
       <c r="N24" s="90"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="8">
@@ -4429,16 +4429,16 @@
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="89"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="90"/>
       <c r="I25" s="89"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
       <c r="N25" s="90"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="8">
@@ -4459,16 +4459,16 @@
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C26" s="89"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="90"/>
       <c r="I26" s="89"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="90"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="8">
@@ -4489,16 +4489,16 @@
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="89"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="90"/>
       <c r="I27" s="89"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="90"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="8">
@@ -4519,16 +4519,16 @@
     </row>
     <row r="28" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="89"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="90"/>
       <c r="I28" s="89"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="90"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="8">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -18,6 +18,7 @@
     <sheet name="월드컵" sheetId="4" r:id="rId4"/>
     <sheet name="erd" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="collection" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Top rate 사람의 추천 영화</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -288,6 +289,50 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 어떤 유저가 만들었는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 어떤 제목으로 만들었는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 어떤 영화를 추가 했는지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1 왜 그 영화를 추가한건지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 공개인가요? 비공개인가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. collection을 처음 만드는건지/ 수정하는건지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 처음 만드는거라고 가정하자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 어떤 유저가 만들었는지는 1:N 관계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review도 만들어야겠다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +387,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -935,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1122,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,6 +1140,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,15 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,6 +1271,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,6 +1406,90 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="21259800" y="3857625"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="7353300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="7353300"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1668,101 +1815,101 @@
   <dimension ref="C2:AN57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:N37"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="46"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="47"/>
-      <c r="AC5" s="45" t="s">
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="50"/>
+      <c r="AC5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="46"/>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="46"/>
-      <c r="AN5" s="47"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="50"/>
     </row>
     <row r="6" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
-      <c r="P6" s="55" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="P6" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="60"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -1777,45 +1924,45 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="59"/>
-      <c r="AC7" s="51" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="62"/>
+      <c r="AC7" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49" t="s">
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="55"/>
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="55"/>
       <c r="AN7" s="9"/>
     </row>
     <row r="8" spans="3:40" x14ac:dyDescent="0.3">
@@ -1831,29 +1978,29 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="59"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="62"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
       <c r="AN8" s="9"/>
     </row>
     <row r="9" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1869,84 +2016,84 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="59"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="49"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="49"/>
-      <c r="AM9" s="49"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="62"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="55"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
       <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="62"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="50"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
       <c r="AN10" s="9"/>
     </row>
     <row r="11" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C11" s="51"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -1959,168 +2106,168 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="49"/>
-      <c r="AJ11" s="49"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="49"/>
-      <c r="AM11" s="49"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
       <c r="AN11" s="9"/>
     </row>
     <row r="12" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="63" t="s">
+      <c r="Q12" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="68"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="71" t="s">
+      <c r="W12" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="73"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="76"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="49"/>
-      <c r="AI12" s="49"/>
-      <c r="AJ12" s="49"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="49"/>
-      <c r="AM12" s="49"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
       <c r="AN12" s="9"/>
     </row>
     <row r="13" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="67"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="70"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="75"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="78"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="55"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
       <c r="AN13" s="9"/>
     </row>
     <row r="14" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="67"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="70"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="75"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="78"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="49"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="49"/>
-      <c r="AM14" s="49"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
       <c r="AN14" s="9"/>
     </row>
     <row r="15" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="67"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="70"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="75"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="78"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="9"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
@@ -2131,28 +2278,28 @@
       <c r="AN15" s="9"/>
     </row>
     <row r="16" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="67"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="70"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="75"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="78"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
       <c r="AC16" s="7"/>
@@ -2182,15 +2329,15 @@
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="67"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="70"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="75"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="78"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
       <c r="AC17" s="7"/>
@@ -2199,13 +2346,13 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="49" t="s">
+      <c r="AI17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
       <c r="AN17" s="9"/>
     </row>
     <row r="18" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2222,15 +2369,15 @@
       <c r="M18" s="2"/>
       <c r="N18" s="17"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="78"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="81"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="9"/>
       <c r="AC18" s="7"/>
@@ -2247,20 +2394,20 @@
       <c r="AN18" s="9"/>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -2286,18 +2433,18 @@
       <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C20" s="51"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -2324,18 +2471,18 @@
       <c r="AN20" s="9"/>
     </row>
     <row r="21" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="51"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2362,198 +2509,198 @@
       <c r="AN21" s="12"/>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C22" s="51"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
-      <c r="P22" s="48" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56"/>
+      <c r="P22" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="50"/>
-      <c r="AC22" s="48" t="s">
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
+      <c r="AC22" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
-      <c r="AK22" s="49"/>
-      <c r="AL22" s="49"/>
-      <c r="AM22" s="49"/>
-      <c r="AN22" s="50"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="56"/>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C23" s="51"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="50"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="50"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="56"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="56"/>
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C24" s="51"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="49"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="49"/>
-      <c r="AK24" s="49"/>
-      <c r="AL24" s="49"/>
-      <c r="AM24" s="49"/>
-      <c r="AN24" s="50"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="56"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="55"/>
+      <c r="AI24" s="55"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="55"/>
+      <c r="AL24" s="55"/>
+      <c r="AM24" s="55"/>
+      <c r="AN24" s="56"/>
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C25" s="51"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="50"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="49"/>
-      <c r="AE25" s="49"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="50"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="56"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="56"/>
     </row>
     <row r="26" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="50"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="56"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="55"/>
+      <c r="AH26" s="55"/>
+      <c r="AI26" s="55"/>
+      <c r="AJ26" s="55"/>
+      <c r="AK26" s="55"/>
+      <c r="AL26" s="55"/>
+      <c r="AM26" s="55"/>
+      <c r="AN26" s="56"/>
     </row>
     <row r="27" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="18"/>
@@ -2568,412 +2715,412 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="19"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="49"/>
-      <c r="V27" s="49"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="50"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="49"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="50"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="56"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="55"/>
+      <c r="AH27" s="55"/>
+      <c r="AI27" s="55"/>
+      <c r="AJ27" s="55"/>
+      <c r="AK27" s="55"/>
+      <c r="AL27" s="55"/>
+      <c r="AM27" s="55"/>
+      <c r="AN27" s="56"/>
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="50"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="49"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="56"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="55"/>
+      <c r="AH28" s="55"/>
+      <c r="AI28" s="55"/>
+      <c r="AJ28" s="55"/>
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="55"/>
+      <c r="AM28" s="55"/>
+      <c r="AN28" s="56"/>
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C29" s="51"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="50"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="49"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="50"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="49"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="50"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="56"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="56"/>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C30" s="51"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="49"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="50"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="49"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="50"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="56"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="56"/>
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C31" s="51"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="50"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="50"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="50"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="56"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="56"/>
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C32" s="51"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="50"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="49"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="50"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="56"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="56"/>
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C33" s="51"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="50"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="49"/>
-      <c r="V33" s="49"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="49"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="50"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="49"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="50"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="56"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="56"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="56"/>
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C34" s="51"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="50"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="49"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="50"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="56"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="56"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="55"/>
+      <c r="AJ34" s="55"/>
+      <c r="AK34" s="55"/>
+      <c r="AL34" s="55"/>
+      <c r="AM34" s="55"/>
+      <c r="AN34" s="56"/>
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C35" s="51"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="49"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="50"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="49"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="50"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="56"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="55"/>
+      <c r="AJ35" s="55"/>
+      <c r="AK35" s="55"/>
+      <c r="AL35" s="55"/>
+      <c r="AM35" s="55"/>
+      <c r="AN35" s="56"/>
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C36" s="51"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="50"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="50"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="50"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="56"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="56"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
+      <c r="AM36" s="55"/>
+      <c r="AN36" s="56"/>
     </row>
     <row r="37" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="49"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="50"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="49"/>
-      <c r="AE37" s="49"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="49"/>
-      <c r="AM37" s="49"/>
-      <c r="AN37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="56"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="55"/>
+      <c r="AH37" s="55"/>
+      <c r="AI37" s="55"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55"/>
+      <c r="AL37" s="55"/>
+      <c r="AM37" s="55"/>
+      <c r="AN37" s="56"/>
     </row>
     <row r="38" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="20"/>
@@ -2988,30 +3135,30 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="54"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="53"/>
-      <c r="AK38" s="53"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
-      <c r="AN38" s="54"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="52"/>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="53"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="52"/>
+      <c r="AN38" s="53"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
@@ -3120,6 +3267,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC5:AN5"/>
+    <mergeCell ref="AC22:AN38"/>
+    <mergeCell ref="AC7:AF15"/>
+    <mergeCell ref="AG14:AM14"/>
+    <mergeCell ref="AG7:AM13"/>
+    <mergeCell ref="AI17:AM17"/>
     <mergeCell ref="C3:N4"/>
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="P22:AA38"/>
@@ -3133,12 +3286,6 @@
     <mergeCell ref="C10:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N15"/>
-    <mergeCell ref="AC5:AN5"/>
-    <mergeCell ref="AC22:AN38"/>
-    <mergeCell ref="AC7:AF15"/>
-    <mergeCell ref="AG14:AM14"/>
-    <mergeCell ref="AG7:AM13"/>
-    <mergeCell ref="AI17:AM17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,50 +3899,50 @@
   <sheetData>
     <row r="2" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="P3" s="83" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
+      <c r="P3" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="85"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="88"/>
     </row>
     <row r="4" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="88"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
@@ -3810,35 +3957,35 @@
       <c r="AA4" s="29"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="86" t="s">
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="88"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="91"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="R5" s="8"/>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
       <c r="Y5" s="8" t="s">
         <v>51</v>
       </c>
@@ -3850,31 +3997,31 @@
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C6" s="89"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="90"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="93"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="8">
         <v>1</v>
       </c>
       <c r="R6" s="8"/>
-      <c r="S6" s="49" t="s">
+      <c r="S6" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
       <c r="Y6" s="40">
         <v>0.05</v>
       </c>
@@ -3886,31 +4033,31 @@
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C7" s="89"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="90"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="93"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="8">
         <v>2</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="39" t="s">
@@ -3918,18 +4065,18 @@
       </c>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C8" s="89"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="90"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="93"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="8">
         <v>3</v>
@@ -3948,18 +4095,18 @@
       </c>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C9" s="89"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="90"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="93"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="8">
         <v>4</v>
@@ -3978,18 +4125,18 @@
       </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C10" s="89"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="90"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="93"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="8">
         <v>5</v>
@@ -4008,18 +4155,18 @@
       </c>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C11" s="89"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="93"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="8">
         <v>6</v>
@@ -4038,18 +4185,18 @@
       </c>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C12" s="89"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="90"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="93"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="8">
         <v>7</v>
@@ -4068,18 +4215,18 @@
       </c>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C13" s="89"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="90"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="93"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="8">
         <v>8</v>
@@ -4098,18 +4245,18 @@
       </c>
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C14" s="89"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="93"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="8">
         <v>9</v>
@@ -4128,18 +4275,18 @@
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C15" s="89"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="93"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="8">
         <v>10</v>
@@ -4158,18 +4305,18 @@
       </c>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C16" s="89"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="93"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="8">
         <v>11</v>
@@ -4188,18 +4335,18 @@
       </c>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C17" s="89"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="90"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="93"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="8">
         <v>12</v>
@@ -4218,18 +4365,18 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C18" s="89"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="90"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="93"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="8">
         <v>13</v>
@@ -4248,18 +4395,18 @@
       </c>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C19" s="89"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="93"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="8">
         <v>14</v>
@@ -4278,18 +4425,18 @@
       </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C20" s="89"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="90"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="93"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="8">
         <v>15</v>
@@ -4308,18 +4455,18 @@
       </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C21" s="89"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="90"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="93"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="8">
         <v>16</v>
@@ -4338,18 +4485,18 @@
       </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C22" s="89"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="90"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="93"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="8">
         <v>17</v>
@@ -4368,18 +4515,18 @@
       </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C23" s="89"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="90"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="93"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="8">
         <v>18</v>
@@ -4398,18 +4545,18 @@
       </c>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C24" s="89"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="93"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="8">
         <v>19</v>
@@ -4428,18 +4575,18 @@
       </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C25" s="89"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="90"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="93"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="8">
         <v>20</v>
@@ -4458,18 +4605,18 @@
       </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C26" s="89"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="93"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="8">
         <v>21</v>
@@ -4488,18 +4635,18 @@
       </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C27" s="89"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="90"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="93"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="8">
         <v>22</v>
@@ -4518,18 +4665,18 @@
       </c>
     </row>
     <row r="28" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="89"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="90"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="93"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="8">
         <v>23</v>
@@ -4548,22 +4695,22 @@
       </c>
     </row>
     <row r="29" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="83" t="s">
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="85"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="88"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -4580,22 +4727,22 @@
       </c>
     </row>
     <row r="30" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="83" t="s">
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="85"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="88"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
       <c r="R30" s="33"/>
@@ -4781,11 +4928,11 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="91" t="s">
+      <c r="K8" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5217,4 +5364,593 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:N41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="31"/>
+    </row>
+    <row r="41" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Desktop\새 폴더\SSAFY-PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumin\Desktop\SSAFY\git\SSAFY-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E0363-C187-446E-83A9-0FEBEEBD8EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10695" windowHeight="7380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1131,6 +1132,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,6 +1144,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1149,18 +1165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,9 +1275,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,7 +1310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1351,7 +1358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1398,7 +1411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1435,7 +1454,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1482,7 +1507,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1519,7 +1550,13 @@
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그"/>
+        <xdr:cNvPr id="3" name="AutoShape 1" descr="여름방학에 볼 만한 어린이 영화 추천 7 : 네이버 블로그">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1811,105 +1848,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AN57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="50"/>
-      <c r="AC5" s="48" t="s">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="51"/>
+      <c r="AC5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="51"/>
     </row>
     <row r="6" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
-      <c r="P6" s="58" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="51"/>
+      <c r="P6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="61"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -1924,45 +1961,45 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="62"/>
-      <c r="AC7" s="57" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="63"/>
+      <c r="AC7" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55" t="s">
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
       <c r="AN7" s="9"/>
     </row>
     <row r="8" spans="3:40" x14ac:dyDescent="0.3">
@@ -1978,29 +2015,29 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="62"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="63"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
       <c r="AN8" s="9"/>
     </row>
     <row r="9" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2016,84 +2053,84 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="62"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="63"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
       <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="66"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
       <c r="AN10" s="9"/>
     </row>
     <row r="11" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C11" s="57"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="56"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -2106,200 +2143,193 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="55"/>
-      <c r="AI11" s="55"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
       <c r="AN11" s="9"/>
     </row>
     <row r="12" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="58"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="66" t="s">
+      <c r="Q12" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="67"/>
-      <c r="S12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="74" t="s">
+      <c r="W12" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="77"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
       <c r="AN12" s="9"/>
     </row>
     <row r="13" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="85"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="71"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="79"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
       <c r="AN13" s="9"/>
     </row>
     <row r="14" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="71"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="79"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
       <c r="AN14" s="9"/>
     </row>
     <row r="15" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="71"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="79"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="9"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="8"/>
-      <c r="AK15" s="8"/>
-      <c r="AL15" s="8"/>
-      <c r="AM15" s="8"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
       <c r="AN15" s="9"/>
     </row>
     <row r="16" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="71"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="79"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
       <c r="AC16" s="7"/>
@@ -2329,15 +2359,15 @@
       <c r="M17" s="14"/>
       <c r="N17" s="15"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="79"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
       <c r="AC17" s="7"/>
@@ -2346,13 +2376,13 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="55" t="s">
+      <c r="AI17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
       <c r="AN17" s="9"/>
     </row>
     <row r="18" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2369,15 +2399,15 @@
       <c r="M18" s="2"/>
       <c r="N18" s="17"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="73"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="74"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="81"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="82"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="9"/>
       <c r="AC18" s="7"/>
@@ -2394,20 +2424,20 @@
       <c r="AN18" s="9"/>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="51"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -2433,18 +2463,18 @@
       <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C20" s="57"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="56"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="54"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -2471,18 +2501,18 @@
       <c r="AN20" s="9"/>
     </row>
     <row r="21" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="57"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="54"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2509,198 +2539,198 @@
       <c r="AN21" s="12"/>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C22" s="57"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="P22" s="54" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="54"/>
+      <c r="P22" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="56"/>
-      <c r="AC22" s="54" t="s">
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="54"/>
+      <c r="AC22" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="56"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="53"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="53"/>
+      <c r="AM22" s="53"/>
+      <c r="AN22" s="54"/>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C23" s="57"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="56"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="56"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="55"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="55"/>
-      <c r="AJ23" s="55"/>
-      <c r="AK23" s="55"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="55"/>
-      <c r="AN23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="54"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="53"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="54"/>
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C24" s="57"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="56"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="56"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="55"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="55"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="55"/>
-      <c r="AN24" s="56"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="54"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="53"/>
+      <c r="AK24" s="53"/>
+      <c r="AL24" s="53"/>
+      <c r="AM24" s="53"/>
+      <c r="AN24" s="54"/>
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C25" s="57"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="56"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="55"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="55"/>
-      <c r="AJ25" s="55"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="55"/>
-      <c r="AN25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="54"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="53"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="53"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="53"/>
+      <c r="AL25" s="53"/>
+      <c r="AM25" s="53"/>
+      <c r="AN25" s="54"/>
     </row>
     <row r="26" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="56"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="55"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="55"/>
-      <c r="AJ26" s="55"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="55"/>
-      <c r="AN26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="54"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="53"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="53"/>
+      <c r="AJ26" s="53"/>
+      <c r="AK26" s="53"/>
+      <c r="AL26" s="53"/>
+      <c r="AM26" s="53"/>
+      <c r="AN26" s="54"/>
     </row>
     <row r="27" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="18"/>
@@ -2715,412 +2745,412 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="19"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="56"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="55"/>
-      <c r="AH27" s="55"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="55"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="55"/>
-      <c r="AN27" s="56"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="54"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="53"/>
+      <c r="AK27" s="53"/>
+      <c r="AL27" s="53"/>
+      <c r="AM27" s="53"/>
+      <c r="AN27" s="54"/>
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="56"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="55"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="55"/>
-      <c r="AN28" s="56"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="51"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="54"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="53"/>
+      <c r="AJ28" s="53"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="54"/>
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C29" s="57"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="56"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="56"/>
-      <c r="AC29" s="57"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="53"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="53"/>
+      <c r="AA29" s="54"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="53"/>
+      <c r="AJ29" s="53"/>
+      <c r="AK29" s="53"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="53"/>
+      <c r="AN29" s="54"/>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C30" s="57"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="56"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="54"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="53"/>
+      <c r="AJ30" s="53"/>
+      <c r="AK30" s="53"/>
+      <c r="AL30" s="53"/>
+      <c r="AM30" s="53"/>
+      <c r="AN30" s="54"/>
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C31" s="57"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="56"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="56"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="55"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="55"/>
-      <c r="AJ31" s="55"/>
-      <c r="AK31" s="55"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="55"/>
-      <c r="AN31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="54"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="53"/>
+      <c r="AL31" s="53"/>
+      <c r="AM31" s="53"/>
+      <c r="AN31" s="54"/>
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C32" s="57"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="56"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="56"/>
-      <c r="AC32" s="57"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="55"/>
-      <c r="AJ32" s="55"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="55"/>
-      <c r="AN32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="54"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="54"/>
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C33" s="57"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="56"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="55"/>
-      <c r="AA33" s="56"/>
-      <c r="AC33" s="57"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="55"/>
-      <c r="AJ33" s="55"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="55"/>
-      <c r="AN33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="54"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="53"/>
+      <c r="AE33" s="53"/>
+      <c r="AF33" s="53"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="53"/>
+      <c r="AJ33" s="53"/>
+      <c r="AK33" s="53"/>
+      <c r="AL33" s="53"/>
+      <c r="AM33" s="53"/>
+      <c r="AN33" s="54"/>
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C34" s="57"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="56"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="56"/>
-      <c r="AC34" s="57"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="55"/>
-      <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
-      <c r="AJ34" s="55"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="55"/>
-      <c r="AN34" s="56"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="53"/>
+      <c r="W34" s="53"/>
+      <c r="X34" s="53"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="54"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="53"/>
+      <c r="AE34" s="53"/>
+      <c r="AF34" s="53"/>
+      <c r="AG34" s="53"/>
+      <c r="AH34" s="53"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="53"/>
+      <c r="AK34" s="53"/>
+      <c r="AL34" s="53"/>
+      <c r="AM34" s="53"/>
+      <c r="AN34" s="54"/>
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C35" s="57"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="56"/>
-      <c r="AC35" s="57"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
-      <c r="AH35" s="55"/>
-      <c r="AI35" s="55"/>
-      <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="55"/>
-      <c r="AN35" s="56"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="54"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="53"/>
+      <c r="AI35" s="53"/>
+      <c r="AJ35" s="53"/>
+      <c r="AK35" s="53"/>
+      <c r="AL35" s="53"/>
+      <c r="AM35" s="53"/>
+      <c r="AN35" s="54"/>
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C36" s="57"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="56"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="56"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="56"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="53"/>
+      <c r="W36" s="53"/>
+      <c r="X36" s="53"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="53"/>
+      <c r="AA36" s="54"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="53"/>
+      <c r="AF36" s="53"/>
+      <c r="AG36" s="53"/>
+      <c r="AH36" s="53"/>
+      <c r="AI36" s="53"/>
+      <c r="AJ36" s="53"/>
+      <c r="AK36" s="53"/>
+      <c r="AL36" s="53"/>
+      <c r="AM36" s="53"/>
+      <c r="AN36" s="54"/>
     </row>
     <row r="37" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="51"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="53"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="55"/>
-      <c r="AA37" s="56"/>
-      <c r="AC37" s="57"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="55"/>
-      <c r="AH37" s="55"/>
-      <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="58"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="53"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="54"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="53"/>
+      <c r="AH37" s="53"/>
+      <c r="AI37" s="53"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="54"/>
     </row>
     <row r="38" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="20"/>
@@ -3135,30 +3165,30 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="52"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="52"/>
-      <c r="X38" s="52"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="52"/>
-      <c r="AA38" s="53"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="52"/>
-      <c r="AG38" s="52"/>
-      <c r="AH38" s="52"/>
-      <c r="AI38" s="52"/>
-      <c r="AJ38" s="52"/>
-      <c r="AK38" s="52"/>
-      <c r="AL38" s="52"/>
-      <c r="AM38" s="52"/>
-      <c r="AN38" s="53"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="58"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="57"/>
+      <c r="AN38" s="58"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
@@ -3267,12 +3297,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC5:AN5"/>
-    <mergeCell ref="AC22:AN38"/>
-    <mergeCell ref="AC7:AF15"/>
-    <mergeCell ref="AG14:AM14"/>
-    <mergeCell ref="AG7:AM13"/>
-    <mergeCell ref="AI17:AM17"/>
     <mergeCell ref="C3:N4"/>
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="P22:AA38"/>
@@ -3286,6 +3310,12 @@
     <mergeCell ref="C10:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N15"/>
+    <mergeCell ref="AC5:AN5"/>
+    <mergeCell ref="AC22:AN38"/>
+    <mergeCell ref="AC7:AF15"/>
+    <mergeCell ref="AG15:AM15"/>
+    <mergeCell ref="AG7:AM13"/>
+    <mergeCell ref="AI17:AM17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3295,7 +3325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="J10"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3316,7 +3346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:N41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3885,7 +3915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:AA33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
@@ -3899,50 +3929,50 @@
   <sheetData>
     <row r="2" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88"/>
-      <c r="P3" s="86" t="s">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="P3" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="89"/>
     </row>
     <row r="4" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="89"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="28"/>
       <c r="R4" s="28"/>
@@ -3957,35 +3987,35 @@
       <c r="AA4" s="29"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="89" t="s">
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="R5" s="8"/>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
       <c r="Y5" s="8" t="s">
         <v>51</v>
       </c>
@@ -3997,31 +4027,31 @@
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C6" s="92"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="94"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="8">
         <v>1</v>
       </c>
       <c r="R6" s="8"/>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
       <c r="Y6" s="40">
         <v>0.05</v>
       </c>
@@ -4033,31 +4063,31 @@
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C7" s="92"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="94"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="8">
         <v>2</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="55" t="s">
+      <c r="S7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="39" t="s">
@@ -4065,18 +4095,18 @@
       </c>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C8" s="92"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="94"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="8">
         <v>3</v>
@@ -4095,18 +4125,18 @@
       </c>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C9" s="92"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="94"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="8">
         <v>4</v>
@@ -4125,18 +4155,18 @@
       </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C10" s="92"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="94"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="8">
         <v>5</v>
@@ -4155,18 +4185,18 @@
       </c>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C11" s="92"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="94"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="8">
         <v>6</v>
@@ -4185,18 +4215,18 @@
       </c>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C12" s="92"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="94"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="8">
         <v>7</v>
@@ -4215,18 +4245,18 @@
       </c>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C13" s="92"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="94"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="8">
         <v>8</v>
@@ -4245,18 +4275,18 @@
       </c>
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C14" s="92"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="94"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="8">
         <v>9</v>
@@ -4275,18 +4305,18 @@
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C15" s="92"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="94"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="8">
         <v>10</v>
@@ -4305,18 +4335,18 @@
       </c>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C16" s="92"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="94"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="8">
         <v>11</v>
@@ -4335,18 +4365,18 @@
       </c>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C17" s="92"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="94"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="8">
         <v>12</v>
@@ -4365,18 +4395,18 @@
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C18" s="92"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="94"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="8">
         <v>13</v>
@@ -4395,18 +4425,18 @@
       </c>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C19" s="92"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="94"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="8">
         <v>14</v>
@@ -4425,18 +4455,18 @@
       </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C20" s="92"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="94"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="8">
         <v>15</v>
@@ -4455,18 +4485,18 @@
       </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C21" s="92"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="94"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="8">
         <v>16</v>
@@ -4485,18 +4515,18 @@
       </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C22" s="92"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="94"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="8">
         <v>17</v>
@@ -4515,18 +4545,18 @@
       </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C23" s="92"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="94"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="8">
         <v>18</v>
@@ -4545,18 +4575,18 @@
       </c>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C24" s="92"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="94"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="8">
         <v>19</v>
@@ -4575,18 +4605,18 @@
       </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C25" s="92"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="94"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="8">
         <v>20</v>
@@ -4605,18 +4635,18 @@
       </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C26" s="92"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="94"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="8">
         <v>21</v>
@@ -4635,18 +4665,18 @@
       </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C27" s="92"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="94"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="8">
         <v>22</v>
@@ -4665,18 +4695,18 @@
       </c>
     </row>
     <row r="28" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="92"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="94"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="8">
         <v>23</v>
@@ -4695,22 +4725,22 @@
       </c>
     </row>
     <row r="29" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="86" t="s">
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="89"/>
       <c r="P29" s="30"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -4727,22 +4757,22 @@
       </c>
     </row>
     <row r="30" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="86" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="89"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="33"/>
       <c r="R30" s="33"/>
@@ -4863,7 +4893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D6:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4897,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="F7:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4928,11 +4958,11 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="94" t="s">
+      <c r="K8" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -5367,7 +5397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C2:N41"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
@@ -5631,7 +5661,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="95"/>
+      <c r="I19" s="48"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
@@ -5645,7 +5675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="95"/>
+      <c r="I20" s="48"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -5659,7 +5689,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="95"/>
+      <c r="I21" s="48"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -5673,7 +5703,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="95"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -5687,7 +5717,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="95"/>
+      <c r="I23" s="48"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -5701,7 +5731,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="95"/>
+      <c r="I24" s="48"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -5715,7 +5745,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="95"/>
+      <c r="I25" s="48"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumin\Desktop\SSAFY\git\SSAFY-PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6E0363-C187-446E-83A9-0FEBEEBD8EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1112E098-18F8-4146-AEA3-0583804CD091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>top rated 영화 추천</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>up coming 영화 추천 (2page 정도)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -334,6 +330,10 @@
   </si>
   <si>
     <t>review도 만들어야겠다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자에게 맞는 top rated 영화 추천</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1144,6 +1144,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1154,15 +1163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1851,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AN57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22:AN38"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1860,7 +1860,7 @@
     <row r="2" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C3" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
@@ -1875,18 +1875,18 @@
       <c r="N3" s="51"/>
     </row>
     <row r="4" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="58"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P5" s="49" t="s">
@@ -1904,7 +1904,7 @@
       <c r="Z5" s="50"/>
       <c r="AA5" s="51"/>
       <c r="AC5" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD5" s="50"/>
       <c r="AE5" s="50"/>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="6" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C6" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
@@ -1961,45 +1961,45 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="58"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
       <c r="P7" s="62"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
       <c r="AA7" s="63"/>
-      <c r="AC7" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53" t="s">
+      <c r="AC7" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
       <c r="AN7" s="9"/>
     </row>
     <row r="8" spans="3:40" x14ac:dyDescent="0.3">
@@ -2016,28 +2016,28 @@
       <c r="M8" s="2"/>
       <c r="N8" s="3"/>
       <c r="P8" s="62"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="53"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
       <c r="AA8" s="63"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="53"/>
-      <c r="AE8" s="53"/>
-      <c r="AF8" s="53"/>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="53"/>
-      <c r="AI8" s="53"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
       <c r="AN8" s="9"/>
     </row>
     <row r="9" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2054,33 +2054,33 @@
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
       <c r="P9" s="62"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
       <c r="AA9" s="63"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
       <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C10" s="83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -2105,32 +2105,32 @@
       <c r="Y10" s="65"/>
       <c r="Z10" s="65"/>
       <c r="AA10" s="66"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
       <c r="AN10" s="9"/>
     </row>
     <row r="11" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -2143,35 +2143,35 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="9"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
       <c r="AN11" s="9"/>
     </row>
     <row r="12" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="58"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="54"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R12" s="68"/>
       <c r="S12" s="69"/>
@@ -2179,23 +2179,23 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X12" s="76"/>
       <c r="Y12" s="77"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="9"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
       <c r="AN12" s="9"/>
     </row>
     <row r="13" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2213,27 +2213,27 @@
       <c r="N13" s="86"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="70"/>
-      <c r="R13" s="53"/>
+      <c r="R13" s="56"/>
       <c r="S13" s="71"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="78"/>
-      <c r="X13" s="53"/>
+      <c r="X13" s="56"/>
       <c r="Y13" s="79"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="9"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
       <c r="AN13" s="9"/>
     </row>
     <row r="14" spans="3:40" x14ac:dyDescent="0.3">
@@ -2253,58 +2253,58 @@
       <c r="N14" s="51"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="70"/>
-      <c r="R14" s="53"/>
+      <c r="R14" s="56"/>
       <c r="S14" s="71"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="78"/>
-      <c r="X14" s="53"/>
+      <c r="X14" s="56"/>
       <c r="Y14" s="79"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="9"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
       <c r="AN14" s="9"/>
     </row>
     <row r="15" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="70"/>
-      <c r="R15" s="53"/>
+      <c r="R15" s="56"/>
       <c r="S15" s="71"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="78"/>
-      <c r="X15" s="53"/>
+      <c r="X15" s="56"/>
       <c r="Y15" s="79"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="9"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
       <c r="AN15" s="9"/>
     </row>
     <row r="16" spans="3:40" x14ac:dyDescent="0.3">
@@ -2322,13 +2322,13 @@
       <c r="N16" s="51"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="70"/>
-      <c r="R16" s="53"/>
+      <c r="R16" s="56"/>
       <c r="S16" s="71"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="78"/>
-      <c r="X16" s="53"/>
+      <c r="X16" s="56"/>
       <c r="Y16" s="79"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="9"/>
@@ -2360,13 +2360,13 @@
       <c r="N17" s="15"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="70"/>
-      <c r="R17" s="53"/>
+      <c r="R17" s="56"/>
       <c r="S17" s="71"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="78"/>
-      <c r="X17" s="53"/>
+      <c r="X17" s="56"/>
       <c r="Y17" s="79"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="9"/>
@@ -2376,13 +2376,13 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
+      <c r="AI17" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
       <c r="AN17" s="9"/>
     </row>
     <row r="18" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2425,7 +2425,7 @@
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C19" s="49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -2463,18 +2463,18 @@
       <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="54"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
@@ -2501,18 +2501,18 @@
       <c r="AN20" s="9"/>
     </row>
     <row r="21" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="54"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="57"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
@@ -2539,198 +2539,198 @@
       <c r="AN21" s="12"/>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C22" s="55"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="54"/>
-      <c r="P22" s="52" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="57"/>
+      <c r="P22" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="54"/>
-      <c r="AC22" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="53"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="53"/>
-      <c r="AM22" s="53"/>
-      <c r="AN22" s="54"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
+      <c r="AC22" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="57"/>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="54"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="54"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="57"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="57"/>
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C24" s="55"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="54"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="54"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="53"/>
-      <c r="AK24" s="53"/>
-      <c r="AL24" s="53"/>
-      <c r="AM24" s="53"/>
-      <c r="AN24" s="54"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="57"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="57"/>
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="54"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="53"/>
-      <c r="AM25" s="53"/>
-      <c r="AN25" s="54"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="57"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="57"/>
     </row>
     <row r="26" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="58"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="54"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="53"/>
-      <c r="AK26" s="53"/>
-      <c r="AL26" s="53"/>
-      <c r="AM26" s="53"/>
-      <c r="AN26" s="54"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="54"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="56"/>
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="57"/>
     </row>
     <row r="27" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="18"/>
@@ -2745,34 +2745,34 @@
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
       <c r="N27" s="19"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="54"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="53"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="53"/>
-      <c r="AK27" s="53"/>
-      <c r="AL27" s="53"/>
-      <c r="AM27" s="53"/>
-      <c r="AN27" s="54"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="57"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="57"/>
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C28" s="49" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
@@ -2785,372 +2785,372 @@
       <c r="L28" s="50"/>
       <c r="M28" s="50"/>
       <c r="N28" s="51"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="54"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="54"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="57"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="57"/>
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C29" s="55"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="54"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="53"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="53"/>
-      <c r="AN29" s="54"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="57"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="57"/>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C30" s="55"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="54"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="53"/>
-      <c r="AE30" s="53"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="53"/>
-      <c r="AK30" s="53"/>
-      <c r="AL30" s="53"/>
-      <c r="AM30" s="53"/>
-      <c r="AN30" s="54"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="57"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="57"/>
     </row>
     <row r="31" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C31" s="55"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="54"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
-      <c r="AN31" s="54"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="57"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="57"/>
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C32" s="55"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="53"/>
-      <c r="Y32" s="53"/>
-      <c r="Z32" s="53"/>
-      <c r="AA32" s="54"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="53"/>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="53"/>
-      <c r="AN32" s="54"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="57"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="57"/>
     </row>
     <row r="33" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C33" s="55"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="54"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="54"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="57"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="57"/>
     </row>
     <row r="34" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C34" s="55"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="54"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="54"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
-      <c r="AN34" s="54"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="57"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="57"/>
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C35" s="55"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="54"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="54"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
-      <c r="AN35" s="54"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="57"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="57"/>
     </row>
     <row r="36" spans="3:40" x14ac:dyDescent="0.3">
-      <c r="C36" s="55"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="54"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53"/>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53"/>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
-      <c r="AN36" s="54"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="57"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="57"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="56"/>
+      <c r="AE36" s="56"/>
+      <c r="AF36" s="56"/>
+      <c r="AG36" s="56"/>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="57"/>
     </row>
     <row r="37" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="58"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="54"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
-      <c r="AM37" s="53"/>
-      <c r="AN37" s="54"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="57"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="57"/>
     </row>
     <row r="38" spans="3:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="20"/>
@@ -3165,138 +3165,144 @@
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
       <c r="N38" s="22"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="58"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="57"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="57"/>
-      <c r="AI38" s="57"/>
-      <c r="AJ38" s="57"/>
-      <c r="AK38" s="57"/>
-      <c r="AL38" s="57"/>
-      <c r="AM38" s="57"/>
-      <c r="AN38" s="58"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="53"/>
+      <c r="R38" s="53"/>
+      <c r="S38" s="53"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="53"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="54"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="53"/>
+      <c r="AE38" s="53"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="53"/>
+      <c r="AJ38" s="53"/>
+      <c r="AK38" s="53"/>
+      <c r="AL38" s="53"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="54"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="3:40" x14ac:dyDescent="0.3">
       <c r="F42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
         <v>21</v>
-      </c>
-      <c r="K44" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="45" spans="3:40" x14ac:dyDescent="0.3">
       <c r="I45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D48" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q48" t="s">
+        <v>25</v>
+      </c>
+      <c r="R48" t="s">
         <v>26</v>
-      </c>
-      <c r="R48" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="49" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D49" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R49" t="s">
+        <v>27</v>
+      </c>
+      <c r="S49" t="s">
         <v>28</v>
-      </c>
-      <c r="S49" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="50" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D50" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D51" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC5:AN5"/>
+    <mergeCell ref="AC22:AN38"/>
+    <mergeCell ref="AC7:AF15"/>
+    <mergeCell ref="AG15:AM15"/>
+    <mergeCell ref="AG7:AM13"/>
+    <mergeCell ref="AI17:AM17"/>
     <mergeCell ref="C3:N4"/>
     <mergeCell ref="P5:AA5"/>
     <mergeCell ref="P22:AA38"/>
@@ -3310,12 +3316,6 @@
     <mergeCell ref="C10:N12"/>
     <mergeCell ref="C13:N13"/>
     <mergeCell ref="C14:N15"/>
-    <mergeCell ref="AC5:AN5"/>
-    <mergeCell ref="AC22:AN38"/>
-    <mergeCell ref="AC7:AF15"/>
-    <mergeCell ref="AG15:AM15"/>
-    <mergeCell ref="AG7:AM13"/>
-    <mergeCell ref="AI17:AM17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3336,7 +3336,7 @@
   <sheetData>
     <row r="10" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3358,7 @@
     <row r="2" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3918,7 +3918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:AA33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
@@ -3930,7 +3930,7 @@
     <row r="2" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
@@ -3944,7 +3944,7 @@
       <c r="M3" s="88"/>
       <c r="N3" s="89"/>
       <c r="P3" s="87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="88"/>
       <c r="R3" s="88"/>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="4" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C5" s="90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="91"/>
       <c r="E5" s="91"/>
@@ -3996,7 +3996,7 @@
       <c r="G5" s="91"/>
       <c r="H5" s="92"/>
       <c r="I5" s="90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
@@ -4005,53 +4005,53 @@
       <c r="N5" s="92"/>
       <c r="P5" s="30"/>
       <c r="Q5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
       <c r="Y5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="Z5" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="AA5" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C6" s="93"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="94"/>
       <c r="I6" s="93"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
       <c r="N6" s="94"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="8">
         <v>1</v>
       </c>
       <c r="R6" s="8"/>
-      <c r="S6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="53"/>
+      <c r="S6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
       <c r="Y6" s="40">
         <v>0.05</v>
       </c>
@@ -4059,53 +4059,53 @@
         <v>0.1</v>
       </c>
       <c r="AA6" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C7" s="93"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="94"/>
       <c r="I7" s="93"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="94"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="8">
         <v>2</v>
       </c>
       <c r="R7" s="8"/>
-      <c r="S7" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
+      <c r="S7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C8" s="93"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="94"/>
       <c r="I8" s="93"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="94"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="8">
@@ -4121,21 +4121,21 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C9" s="93"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="94"/>
       <c r="I9" s="93"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="94"/>
       <c r="P9" s="30"/>
       <c r="Q9" s="8">
@@ -4151,21 +4151,21 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C10" s="93"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="94"/>
       <c r="I10" s="93"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="94"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="8">
@@ -4181,21 +4181,21 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C11" s="93"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="94"/>
       <c r="I11" s="93"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="94"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="8">
@@ -4211,21 +4211,21 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C12" s="93"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="94"/>
       <c r="I12" s="93"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="94"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="8">
@@ -4241,21 +4241,21 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C13" s="93"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="94"/>
       <c r="I13" s="93"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="94"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="8">
@@ -4271,21 +4271,21 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C14" s="93"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="94"/>
       <c r="I14" s="93"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="94"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="8">
@@ -4301,21 +4301,21 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C15" s="93"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="94"/>
       <c r="I15" s="93"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="94"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="8">
@@ -4331,21 +4331,21 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C16" s="93"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="94"/>
       <c r="I16" s="93"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
       <c r="N16" s="94"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="8">
@@ -4361,21 +4361,21 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C17" s="93"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="94"/>
       <c r="I17" s="93"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
       <c r="N17" s="94"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="8">
@@ -4391,21 +4391,21 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C18" s="93"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="94"/>
       <c r="I18" s="93"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="94"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="8">
@@ -4421,21 +4421,21 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C19" s="93"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="94"/>
       <c r="I19" s="93"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="94"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="8">
@@ -4451,21 +4451,21 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C20" s="93"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="94"/>
       <c r="I20" s="93"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
       <c r="N20" s="94"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="8">
@@ -4481,21 +4481,21 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C21" s="93"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="94"/>
       <c r="I21" s="93"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="94"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="8">
@@ -4511,21 +4511,21 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C22" s="93"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="94"/>
       <c r="I22" s="93"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="94"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="8">
@@ -4541,21 +4541,21 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C23" s="93"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="94"/>
       <c r="I23" s="93"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="94"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="8">
@@ -4571,21 +4571,21 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C24" s="93"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="94"/>
       <c r="I24" s="93"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
       <c r="N24" s="94"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="8">
@@ -4601,21 +4601,21 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C25" s="93"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="94"/>
       <c r="I25" s="93"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="94"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="8">
@@ -4631,21 +4631,21 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C26" s="93"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="94"/>
       <c r="I26" s="93"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
       <c r="N26" s="94"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="8">
@@ -4661,21 +4661,21 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C27" s="93"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="94"/>
       <c r="I27" s="93"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
       <c r="N27" s="94"/>
       <c r="P27" s="30"/>
       <c r="Q27" s="8">
@@ -4691,21 +4691,21 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="93"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="94"/>
       <c r="I28" s="93"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="94"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="8">
@@ -4721,12 +4721,12 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="88"/>
       <c r="E29" s="88"/>
@@ -4734,7 +4734,7 @@
       <c r="G29" s="88"/>
       <c r="H29" s="89"/>
       <c r="I29" s="87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="88"/>
       <c r="K29" s="88"/>
@@ -4753,12 +4753,12 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="3:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="88"/>
       <c r="E30" s="88"/>
@@ -4766,7 +4766,7 @@
       <c r="G30" s="88"/>
       <c r="H30" s="89"/>
       <c r="I30" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" s="88"/>
       <c r="K30" s="88"/>
@@ -4814,11 +4814,11 @@
     </row>
     <row r="32" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C32" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -4830,11 +4830,11 @@
       <c r="M32" s="8"/>
       <c r="N32" s="31"/>
       <c r="P32" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
@@ -4904,20 +4904,20 @@
   <sheetData>
     <row r="6" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4959,7 +4959,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" s="95"/>
       <c r="M8" s="95"/>
@@ -5400,7 +5400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C2:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -5409,7 +5409,7 @@
     <row r="2" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5497,14 +5497,14 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -5520,7 +5520,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -5558,7 +5558,7 @@
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -5607,7 +5607,7 @@
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5641,7 +5641,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
